--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprs.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>1.037559852619111</v>
+        <v>0.9610586979808889</v>
       </c>
       <c r="R2">
-        <v>9.338038673571999</v>
+        <v>8.649528281828001</v>
       </c>
       <c r="S2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="T2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
         <v>6.142545421908001</v>
@@ -632,10 +632,10 @@
         <v>55.28290879717201</v>
       </c>
       <c r="S3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="T3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>7.400744082887555</v>
+        <v>7.400744082887558</v>
       </c>
       <c r="R4">
-        <v>66.606696745988</v>
+        <v>66.60669674598802</v>
       </c>
       <c r="S4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="T4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
     </row>
   </sheetData>
